--- a/va_facility_data_2025-02-20/Trinka Davis Veterans Village - Facility Data.xlsx"; filename*=UTF-8''Trinka%20Davis%20Veterans%20Village%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Trinka Davis Veterans Village - Facility Data.xlsx"; filename*=UTF-8''Trinka%20Davis%20Veterans%20Village%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R443089ea14014afc9e58c49b1d424181"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re8ec117e21ab4cc18d4b94181430772d"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R81252b570eac4e1b9474c7ba9f00c9bc"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R9fab737ecabe4ca3a1740734fa835bed"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb6625c2cc4f14442931bd8bfb212d68c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9840e8cf4cc3482d8979ffdd5b7b390e"/>
   </x:sheets>
 </x:workbook>
 </file>
